--- a/biology/Botanique/Scilla/Scilla.xlsx
+++ b/biology/Botanique/Scilla/Scilla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scilla est un genre de plantes herbacées monocotylédones, les scilles véritables.
-Il appartient à la famille des Liliaceae selon la classification classique. La classification phylogénétique APG II (2003)[1] place ce genre dans la famille des Hyacinthaceae (ou optionnellement dans celle des  Asparagaceae) ; la classification phylogénétique APG III (2009)[2] le classe dans la famille des Asparagaceae.
-Des études récentes utilisant le séquençage de l'ADN ont montré que les espèces classées dans le genre Scilla ont une phylogénie différente. Franz Speta[3] a ainsi proposé de diviser le genre Scilla en Scilla sensu stricto et 16 nouveaux genres[4],[5]. Ces études montrent par ailleurs que le genre Chionodoxa devrait être inclus dans le genre Scilla sensu stricto. Cette nouvelle classification n'est toutefois pas encore universellement acceptée.
+Il appartient à la famille des Liliaceae selon la classification classique. La classification phylogénétique APG II (2003) place ce genre dans la famille des Hyacinthaceae (ou optionnellement dans celle des  Asparagaceae) ; la classification phylogénétique APG III (2009) le classe dans la famille des Asparagaceae.
+Des études récentes utilisant le séquençage de l'ADN ont montré que les espèces classées dans le genre Scilla ont une phylogénie différente. Franz Speta a ainsi proposé de diviser le genre Scilla en Scilla sensu stricto et 16 nouveaux genres,. Ces études montrent par ailleurs que le genre Chionodoxa devrait être inclus dans le genre Scilla sensu stricto. Cette nouvelle classification n'est toutefois pas encore universellement acceptée.
 </t>
         </is>
       </c>
@@ -513,10 +525,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nombre d'espèces varie de 30 à environ 80, selon la définition étroite ou large du genre. En 2022, Plants of the World Online accepte les espèces suivantes :
-[6]
 Scilla achtenii De Wild.
 Scilla africana Borzí &amp; Mattei
 Scilla albanica Turrill
